--- a/TestFramework_A/src/test/resources/testdata.xlsx
+++ b/TestFramework_A/src/test/resources/testdata.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FC594-2FDB-4BF3-AC71-61466A972CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C16745-96B6-46C7-972E-55BBCDFBF9B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CountryFilter" sheetId="3" r:id="rId1"/>
+    <sheet name="CompanyVoteCard" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>country</t>
   </si>
@@ -433,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -478,4 +481,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2492CB0-867B-4531-9AB0-B8970C5A1FB5}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>